--- a/My Job/Writing/新建 Microsoft Excel 工作表.xlsx
+++ b/My Job/Writing/新建 Microsoft Excel 工作表.xlsx
@@ -8,24 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Studium\6-BA\Bachelor_Arbeit\My Job\Writing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BA2381-5578-40D3-BC01-42C069CD00F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E8F7AA-8B4A-485A-B75B-D809EA35D107}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5385" yWindow="2850" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Pre</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,15 +49,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>09/2012 - 05/2015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01/2002 - 08/2012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10/2015 - 12/2019</t>
+    <t>2002-2012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013-2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.8+-2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.3+-1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5+-2.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41.7+-1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.6+-0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42.4+-0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.6+-0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.6+-0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33.5+-0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,8 +137,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -380,7 +423,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -392,10 +435,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -405,42 +448,42 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>-1.9E-3</v>
-      </c>
-      <c r="C2">
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="D2">
-        <v>6.9999999999999999E-4</v>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>39.631500000000003</v>
-      </c>
-      <c r="C3">
-        <v>41.515900000000002</v>
-      </c>
-      <c r="D3">
-        <v>43.415300000000002</v>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>33.240200000000002</v>
-      </c>
-      <c r="C4">
-        <v>28.931699999999999</v>
-      </c>
-      <c r="D4">
-        <v>36.023299999999999</v>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">

--- a/My Job/Writing/新建 Microsoft Excel 工作表.xlsx
+++ b/My Job/Writing/新建 Microsoft Excel 工作表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Studium\6-BA\Bachelor_Arbeit\My Job\Writing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E8F7AA-8B4A-485A-B75B-D809EA35D107}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE5018E-B6CB-4680-9A48-C9F928C84AD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5385" yWindow="2850" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -61,39 +61,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.8+-2.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1.3+-1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.5+-2.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>41.7+-1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39.6+-0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>42.4+-0.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32.6+-0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32.6+-0.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33.5+-0.5</t>
+    <t>-1.3±1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.6±0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.6±0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.8±2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41.7±1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.6±0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5±2.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42.4±0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33.5±0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -101,7 +101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +115,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,9 +143,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -420,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -449,13 +456,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -463,13 +470,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -477,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
@@ -490,6 +497,9 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/My Job/Writing/新建 Microsoft Excel 工作表.xlsx
+++ b/My Job/Writing/新建 Microsoft Excel 工作表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Studium\6-BA\Bachelor_Arbeit\My Job\Writing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE5018E-B6CB-4680-9A48-C9F928C84AD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB855C6-A0E4-4AD2-9DDF-7105F5274B39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Pre</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,51 +49,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2002-2012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2013-2014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015-2019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1.3±1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39.6±0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32.6±0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.8±2.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>41.7±1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32.6±0.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.5±2.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>42.4±0.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33.5±0.5</t>
+    <t>-0.43±0.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.86±0.86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75±0.57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.24±0.54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43.88±0.93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.59±0.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33.73±0.60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34.05±0.70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oct 2003 - Sep 2012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oct 2012 - Sep 2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oct 2015 - Sep 2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dS/dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Based on first period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.29±0.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.18±0.52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.64±0.54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.30±0.61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.46±0.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.14±0.46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.53±0.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3.60±0.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-ET-R-dS/dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41.54±0.80</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,12 +187,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -143,10 +219,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -427,79 +505,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.5" customWidth="1"/>
-    <col min="3" max="3" width="35.75" customWidth="1"/>
-    <col min="4" max="4" width="28.25" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="35.77734375" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>11.74</v>
+      </c>
+      <c r="C5" s="1">
+        <v>12.16</v>
+      </c>
+      <c r="D5" s="1">
+        <v>14.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
